--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/40_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/40_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -544,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -656,10 +659,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -668,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1613222894898886</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03454938278284612</v>
+        <v>0.1772362706961595</v>
       </c>
       <c r="F2">
-        <v>0.03538930310934287</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.008068640211402529</v>
+        <v>0.1279922415313361</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.06066220985624814</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -689,40 +695,40 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0689944770795466</v>
+        <v>0.02093107195454266</v>
       </c>
       <c r="L2">
-        <v>0.07292487232605809</v>
+        <v>0.01429505761879556</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.2918381091764473</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0002482012054538961</v>
+        <v>0.2102880278316758</v>
       </c>
       <c r="P2">
-        <v>0.01329872165042877</v>
+        <v>0.03166698223791399</v>
       </c>
       <c r="Q2">
-        <v>0.07595247679809845</v>
+        <v>0.04799774308876594</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.02121514349438493</v>
       </c>
       <c r="S2">
-        <v>0.1867897678074022</v>
+        <v>0.1434546990129599</v>
       </c>
       <c r="T2">
-        <v>0.008606011936145908</v>
+        <v>0.03741703304386175</v>
       </c>
       <c r="U2">
-        <v>0.02012029251601316</v>
+        <v>0.07706274932819029</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.01551122729961706</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -740,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01386804625222533</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.01426954300554838</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -755,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.008029407658700421</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -763,10 +769,13 @@
       <c r="AI2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -775,64 +784,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05802179344130491</v>
+        <v>0.02928916697882518</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.08036247170606452</v>
       </c>
       <c r="F3">
-        <v>0.1027319545916575</v>
+        <v>0.06192098135623707</v>
       </c>
       <c r="G3">
-        <v>0.06936186619066691</v>
+        <v>0.1002516722918425</v>
       </c>
       <c r="H3">
-        <v>0.00813568316824179</v>
+        <v>0.005964402953988293</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01203717762725273</v>
+        <v>0.002750620895859941</v>
       </c>
       <c r="K3">
-        <v>0.02052474806959182</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.001433969612190572</v>
       </c>
       <c r="M3">
-        <v>0.06653965466167951</v>
+        <v>0.02982594330393439</v>
       </c>
       <c r="N3">
-        <v>0.1309767560127608</v>
+        <v>0.09710896158175231</v>
       </c>
       <c r="O3">
-        <v>0.1291422787560598</v>
+        <v>0.1937073449403198</v>
       </c>
       <c r="P3">
-        <v>0.04136758143277507</v>
+        <v>0.02113391617525349</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.164043052619832</v>
+        <v>0.1914882314086153</v>
       </c>
       <c r="S3">
-        <v>0.001074340802754849</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1414363406012869</v>
+        <v>0.1508636206965389</v>
       </c>
       <c r="U3">
-        <v>0.01474517389367799</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01425147006927756</v>
+        <v>0.0009117171433438462</v>
       </c>
       <c r="W3">
-        <v>0.002086990766585298</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -841,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.004448927674873909</v>
+        <v>0.01108646451649061</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -850,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01907420961972067</v>
+        <v>0.01284847470617021</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.009052039732573226</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -870,10 +879,13 @@
       <c r="AI3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -882,64 +894,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1374397035822815</v>
+        <v>0.07818617827537691</v>
       </c>
       <c r="E4">
-        <v>0.01429807020385547</v>
+        <v>0.09300300286609434</v>
       </c>
       <c r="F4">
-        <v>0.07129927378839013</v>
+        <v>0.09523249099070652</v>
       </c>
       <c r="G4">
-        <v>0.05134227900106719</v>
+        <v>0.1370797331160993</v>
       </c>
       <c r="H4">
-        <v>0.002024443417255639</v>
+        <v>0.004969308529992699</v>
       </c>
       <c r="I4">
-        <v>0.004760666813119077</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008892878864057508</v>
+        <v>0.01437325349464726</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01462144527752529</v>
+        <v>0.002135460746692083</v>
       </c>
       <c r="M4">
-        <v>0.08859118314161028</v>
+        <v>0.0266567669904347</v>
       </c>
       <c r="N4">
-        <v>0.1229201691174575</v>
+        <v>0.07457751246954215</v>
       </c>
       <c r="O4">
-        <v>0.1032138269521188</v>
+        <v>0.1644846927274267</v>
       </c>
       <c r="P4">
-        <v>0.05856599955561008</v>
+        <v>0.02932955693748128</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.06833188123597166</v>
+        <v>0.1308093190303934</v>
       </c>
       <c r="S4">
-        <v>0.006311812573164285</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.186982537983224</v>
+        <v>0.1300480904441692</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.002446534551885703</v>
       </c>
       <c r="V4">
-        <v>0.007584178363496657</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.003814444118624861</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -948,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.005693356298389753</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -957,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0197951906585514</v>
+        <v>0.007148788929957352</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01565666269226719</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -972,15 +984,18 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01355335266035133</v>
+        <v>0.003825953600710481</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -989,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1715567336402594</v>
+        <v>0.2718815276581096</v>
       </c>
       <c r="E5">
-        <v>0.01388751504788677</v>
+        <v>0.02063052017547944</v>
       </c>
       <c r="F5">
-        <v>0.05654070755197792</v>
+        <v>0.1521156893069419</v>
       </c>
       <c r="G5">
-        <v>0.019137581346545</v>
+        <v>0.04046776327057917</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1007,40 +1022,40 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01821514547313902</v>
       </c>
       <c r="K5">
-        <v>0.06298853276693887</v>
+        <v>0.005692254259961563</v>
       </c>
       <c r="L5">
-        <v>0.05011465824785134</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2355300864120008</v>
+        <v>0.2551878666107641</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.009076718324801347</v>
+        <v>0.00323983956052154</v>
       </c>
       <c r="Q5">
-        <v>0.109910836525318</v>
+        <v>0.05262215713561566</v>
       </c>
       <c r="R5">
-        <v>0.02894203456019351</v>
+        <v>0.04351844359245516</v>
       </c>
       <c r="S5">
-        <v>0.1691530488526429</v>
+        <v>0.03584132027479876</v>
       </c>
       <c r="T5">
-        <v>0.02022536155419635</v>
+        <v>0.03118183299040152</v>
       </c>
       <c r="U5">
-        <v>0.03274413800809134</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1052,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.01237692017657671</v>
       </c>
       <c r="Z5">
-        <v>0.008401766306039705</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.02594915500880376</v>
       </c>
       <c r="AC5">
-        <v>0.01179028085525688</v>
+        <v>0.03107956450585208</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1084,10 +1099,13 @@
       <c r="AI5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1096,55 +1114,55 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1617311078452908</v>
+        <v>0.2444078529870764</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0857965503641495</v>
+        <v>0.1158616547028272</v>
       </c>
       <c r="G6">
-        <v>0.09142081877735227</v>
+        <v>0.06327060812326102</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01382405660982873</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.008264340659643229</v>
+        <v>0.02733575034037633</v>
       </c>
       <c r="K6">
-        <v>0.003867195268047824</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.03841562329792623</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1720854398611379</v>
+        <v>0.2154603942572758</v>
       </c>
       <c r="O6">
-        <v>0.06697798134333698</v>
+        <v>0.0270681532972942</v>
       </c>
       <c r="P6">
-        <v>0.03686668816274159</v>
+        <v>0.05709177757177522</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.001232168561362074</v>
       </c>
       <c r="R6">
-        <v>0.08788013089811365</v>
+        <v>0.09453780899194306</v>
       </c>
       <c r="S6">
-        <v>0.01179446964685298</v>
+        <v>0.03401144987172554</v>
       </c>
       <c r="T6">
-        <v>0.1467798036531358</v>
+        <v>0.09511968761217045</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1153,16 +1171,16 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01035440073820133</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.0006024729299085801</v>
       </c>
       <c r="Z6">
-        <v>0.01668491778196502</v>
+        <v>0.001504264102139588</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1171,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02804792327041222</v>
+        <v>0.02127836800846701</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01286236971288941</v>
+        <v>0.001217588642397587</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1186,9 +1204,12 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.006346182108974349</v>
+        <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
@@ -1199,15 +1220,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1311,10 +1332,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1323,105 +1347,108 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1613222894898886</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1958716722727348</v>
+        <v>0.1772362706961595</v>
       </c>
       <c r="F2">
-        <v>0.2312609753820776</v>
+        <v>0.1772362706961595</v>
       </c>
       <c r="G2">
-        <v>0.2393296155934801</v>
+        <v>0.3052285122274956</v>
       </c>
       <c r="H2">
-        <v>0.2393296155934801</v>
+        <v>0.3658907220837437</v>
       </c>
       <c r="I2">
-        <v>0.2393296155934801</v>
+        <v>0.3658907220837437</v>
       </c>
       <c r="J2">
-        <v>0.2393296155934801</v>
+        <v>0.3658907220837437</v>
       </c>
       <c r="K2">
-        <v>0.3083240926730267</v>
+        <v>0.3868217940382864</v>
       </c>
       <c r="L2">
-        <v>0.3812489649990848</v>
+        <v>0.4011168516570819</v>
       </c>
       <c r="M2">
-        <v>0.3812489649990848</v>
+        <v>0.4011168516570819</v>
       </c>
       <c r="N2">
-        <v>0.6730870741755322</v>
+        <v>0.4011168516570819</v>
       </c>
       <c r="O2">
-        <v>0.673335275380986</v>
+        <v>0.6114048794887577</v>
       </c>
       <c r="P2">
-        <v>0.6866339970314148</v>
+        <v>0.6430718617266716</v>
       </c>
       <c r="Q2">
-        <v>0.7625864738295133</v>
+        <v>0.6910696048154376</v>
       </c>
       <c r="R2">
-        <v>0.7625864738295133</v>
+        <v>0.7122847483098225</v>
       </c>
       <c r="S2">
-        <v>0.9493762416369155</v>
+        <v>0.8557394473227824</v>
       </c>
       <c r="T2">
-        <v>0.9579822535730613</v>
+        <v>0.8931564803666442</v>
       </c>
       <c r="U2">
-        <v>0.9781025460890744</v>
+        <v>0.9702192296948344</v>
       </c>
       <c r="V2">
-        <v>0.9781025460890744</v>
+        <v>0.9857304569944515</v>
       </c>
       <c r="W2">
-        <v>0.9781025460890744</v>
+        <v>0.9857304569944515</v>
       </c>
       <c r="X2">
-        <v>0.9781025460890744</v>
+        <v>0.9857304569944515</v>
       </c>
       <c r="Y2">
-        <v>0.9781025460890744</v>
+        <v>0.9857304569944515</v>
       </c>
       <c r="Z2">
-        <v>0.9781025460890744</v>
+        <v>0.9857304569944515</v>
       </c>
       <c r="AA2">
-        <v>0.9781025460890744</v>
+        <v>0.9857304569944515</v>
       </c>
       <c r="AB2">
-        <v>0.9919705923412998</v>
+        <v>0.9857304569944515</v>
       </c>
       <c r="AC2">
-        <v>0.9919705923412998</v>
+        <v>0.9857304569944515</v>
       </c>
       <c r="AD2">
-        <v>0.9919705923412998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE2">
-        <v>0.9919705923412998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>0.9919705923412998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1430,105 +1457,108 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05802179344130491</v>
+        <v>0.02928916697882518</v>
       </c>
       <c r="E3">
-        <v>0.05802179344130491</v>
+        <v>0.1096516386848897</v>
       </c>
       <c r="F3">
-        <v>0.1607537480329624</v>
+        <v>0.1715726200411268</v>
       </c>
       <c r="G3">
-        <v>0.2301156142236294</v>
+        <v>0.2718242923329693</v>
       </c>
       <c r="H3">
-        <v>0.2382512973918711</v>
+        <v>0.2777886952869577</v>
       </c>
       <c r="I3">
-        <v>0.2382512973918711</v>
+        <v>0.2777886952869577</v>
       </c>
       <c r="J3">
-        <v>0.2502884750191239</v>
+        <v>0.2805393161828176</v>
       </c>
       <c r="K3">
-        <v>0.2708132230887157</v>
+        <v>0.2805393161828176</v>
       </c>
       <c r="L3">
-        <v>0.2708132230887157</v>
+        <v>0.2819732857950081</v>
       </c>
       <c r="M3">
-        <v>0.3373528777503952</v>
+        <v>0.3117992290989425</v>
       </c>
       <c r="N3">
-        <v>0.468329633763156</v>
+        <v>0.4089081906806948</v>
       </c>
       <c r="O3">
-        <v>0.5974719125192158</v>
+        <v>0.6026155356210147</v>
       </c>
       <c r="P3">
-        <v>0.6388394939519909</v>
+        <v>0.6237494517962682</v>
       </c>
       <c r="Q3">
-        <v>0.6388394939519909</v>
+        <v>0.6237494517962682</v>
       </c>
       <c r="R3">
-        <v>0.8028825465718229</v>
+        <v>0.8152376832048834</v>
       </c>
       <c r="S3">
-        <v>0.8039568873745777</v>
+        <v>0.8152376832048834</v>
       </c>
       <c r="T3">
-        <v>0.9453932279758646</v>
+        <v>0.9661013039014223</v>
       </c>
       <c r="U3">
-        <v>0.9601384018695426</v>
+        <v>0.9661013039014223</v>
       </c>
       <c r="V3">
-        <v>0.9743898719388201</v>
+        <v>0.9670130210447662</v>
       </c>
       <c r="W3">
-        <v>0.9764768627054053</v>
+        <v>0.9670130210447662</v>
       </c>
       <c r="X3">
-        <v>0.9764768627054053</v>
+        <v>0.9670130210447662</v>
       </c>
       <c r="Y3">
-        <v>0.9764768627054053</v>
+        <v>0.9670130210447662</v>
       </c>
       <c r="Z3">
-        <v>0.9809257903802793</v>
+        <v>0.9780994855612568</v>
       </c>
       <c r="AA3">
-        <v>0.9809257903802793</v>
+        <v>0.9780994855612568</v>
       </c>
       <c r="AB3">
-        <v>0.9809257903802793</v>
+        <v>0.9780994855612568</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>0.990947960267427</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1537,105 +1567,108 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1374397035822815</v>
+        <v>0.07818617827537691</v>
       </c>
       <c r="E4">
-        <v>0.151737773786137</v>
+        <v>0.1711891811414712</v>
       </c>
       <c r="F4">
-        <v>0.2230370475745271</v>
+        <v>0.2664216721321778</v>
       </c>
       <c r="G4">
-        <v>0.2743793265755943</v>
+        <v>0.4035014052482771</v>
       </c>
       <c r="H4">
-        <v>0.2764037699928499</v>
+        <v>0.4084707137782698</v>
       </c>
       <c r="I4">
-        <v>0.281164436805969</v>
+        <v>0.4084707137782698</v>
       </c>
       <c r="J4">
-        <v>0.2900573156700265</v>
+        <v>0.4228439672729171</v>
       </c>
       <c r="K4">
-        <v>0.2900573156700265</v>
+        <v>0.4228439672729171</v>
       </c>
       <c r="L4">
-        <v>0.3046787609475518</v>
+        <v>0.4249794280196091</v>
       </c>
       <c r="M4">
-        <v>0.3932699440891621</v>
+        <v>0.4516361950100438</v>
       </c>
       <c r="N4">
-        <v>0.5161901132066196</v>
+        <v>0.526213707479586</v>
       </c>
       <c r="O4">
-        <v>0.6194039401587383</v>
+        <v>0.6906984002070127</v>
       </c>
       <c r="P4">
-        <v>0.6779699397143484</v>
+        <v>0.720027957144494</v>
       </c>
       <c r="Q4">
-        <v>0.6779699397143484</v>
+        <v>0.720027957144494</v>
       </c>
       <c r="R4">
-        <v>0.74630182095032</v>
+        <v>0.8508372761748875</v>
       </c>
       <c r="S4">
-        <v>0.7526136335234843</v>
+        <v>0.8508372761748875</v>
       </c>
       <c r="T4">
-        <v>0.9395961715067083</v>
+        <v>0.9808853666190567</v>
       </c>
       <c r="U4">
-        <v>0.9395961715067083</v>
+        <v>0.9833319011709424</v>
       </c>
       <c r="V4">
-        <v>0.9471803498702049</v>
+        <v>0.9833319011709424</v>
       </c>
       <c r="W4">
-        <v>0.9509947939888298</v>
+        <v>0.9833319011709424</v>
       </c>
       <c r="X4">
-        <v>0.9509947939888298</v>
+        <v>0.9833319011709424</v>
       </c>
       <c r="Y4">
-        <v>0.9509947939888298</v>
+        <v>0.9833319011709424</v>
       </c>
       <c r="Z4">
-        <v>0.9509947939888298</v>
+        <v>0.9890252574693321</v>
       </c>
       <c r="AA4">
-        <v>0.9509947939888298</v>
+        <v>0.9890252574693321</v>
       </c>
       <c r="AB4">
-        <v>0.9509947939888298</v>
+        <v>0.9890252574693321</v>
       </c>
       <c r="AC4">
-        <v>0.9707899846473812</v>
+        <v>0.9961740463992895</v>
       </c>
       <c r="AD4">
-        <v>0.9707899846473812</v>
+        <v>0.9961740463992895</v>
       </c>
       <c r="AE4">
-        <v>0.9864466473396484</v>
+        <v>0.9961740463992895</v>
       </c>
       <c r="AF4">
-        <v>0.9864466473396484</v>
+        <v>0.9961740463992895</v>
       </c>
       <c r="AG4">
-        <v>0.9864466473396484</v>
+        <v>0.9961740463992895</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1644,79 +1677,79 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1715567336402594</v>
+        <v>0.2718815276581096</v>
       </c>
       <c r="E5">
-        <v>0.1854442486881462</v>
+        <v>0.2925120478335891</v>
       </c>
       <c r="F5">
-        <v>0.2419849562401241</v>
+        <v>0.4446277371405309</v>
       </c>
       <c r="G5">
-        <v>0.2611225375866691</v>
+        <v>0.4850955004111101</v>
       </c>
       <c r="H5">
-        <v>0.2611225375866691</v>
+        <v>0.4850955004111101</v>
       </c>
       <c r="I5">
-        <v>0.2611225375866691</v>
+        <v>0.4850955004111101</v>
       </c>
       <c r="J5">
-        <v>0.2611225375866691</v>
+        <v>0.5033106458842491</v>
       </c>
       <c r="K5">
-        <v>0.324111070353608</v>
+        <v>0.5090029001442107</v>
       </c>
       <c r="L5">
-        <v>0.3742257286014593</v>
+        <v>0.5090029001442107</v>
       </c>
       <c r="M5">
-        <v>0.3742257286014593</v>
+        <v>0.5090029001442107</v>
       </c>
       <c r="N5">
-        <v>0.6097558150134601</v>
+        <v>0.7641907667549748</v>
       </c>
       <c r="O5">
-        <v>0.6097558150134601</v>
+        <v>0.7641907667549748</v>
       </c>
       <c r="P5">
-        <v>0.6188325333382615</v>
+        <v>0.7674306063154963</v>
       </c>
       <c r="Q5">
-        <v>0.7287433698635795</v>
+        <v>0.820052763451112</v>
       </c>
       <c r="R5">
-        <v>0.757685404423773</v>
+        <v>0.8635712070435672</v>
       </c>
       <c r="S5">
-        <v>0.9268384532764158</v>
+        <v>0.899412527318366</v>
       </c>
       <c r="T5">
-        <v>0.9470638148306121</v>
+        <v>0.9305943603087675</v>
       </c>
       <c r="U5">
-        <v>0.9798079528387034</v>
+        <v>0.9305943603087675</v>
       </c>
       <c r="V5">
-        <v>0.9798079528387034</v>
+        <v>0.9305943603087675</v>
       </c>
       <c r="W5">
-        <v>0.9798079528387034</v>
+        <v>0.9305943603087675</v>
       </c>
       <c r="X5">
-        <v>0.9798079528387034</v>
+        <v>0.9305943603087675</v>
       </c>
       <c r="Y5">
-        <v>0.9798079528387034</v>
+        <v>0.9429712804853442</v>
       </c>
       <c r="Z5">
-        <v>0.9882097191447431</v>
+        <v>0.9429712804853442</v>
       </c>
       <c r="AA5">
-        <v>0.9882097191447431</v>
+        <v>0.9429712804853442</v>
       </c>
       <c r="AB5">
-        <v>0.9882097191447431</v>
+        <v>0.968920435494148</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -1739,10 +1772,13 @@
       <c r="AI5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1751,100 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1617311078452908</v>
+        <v>0.2444078529870764</v>
       </c>
       <c r="E6">
-        <v>0.1617311078452908</v>
+        <v>0.2444078529870764</v>
       </c>
       <c r="F6">
-        <v>0.2475276582094403</v>
+        <v>0.3602695076899036</v>
       </c>
       <c r="G6">
-        <v>0.3389484769867926</v>
+        <v>0.4235401158131646</v>
       </c>
       <c r="H6">
-        <v>0.3389484769867926</v>
+        <v>0.4235401158131646</v>
       </c>
       <c r="I6">
-        <v>0.3527725335966213</v>
+        <v>0.4235401158131646</v>
       </c>
       <c r="J6">
-        <v>0.3610368742562645</v>
+        <v>0.450875866153541</v>
       </c>
       <c r="K6">
-        <v>0.3649040695243123</v>
+        <v>0.450875866153541</v>
       </c>
       <c r="L6">
-        <v>0.3649040695243123</v>
+        <v>0.450875866153541</v>
       </c>
       <c r="M6">
-        <v>0.4033196928222386</v>
+        <v>0.450875866153541</v>
       </c>
       <c r="N6">
-        <v>0.5754051326833765</v>
+        <v>0.6663362604108168</v>
       </c>
       <c r="O6">
-        <v>0.6423831140267134</v>
+        <v>0.693404413708111</v>
       </c>
       <c r="P6">
-        <v>0.6792498021894551</v>
+        <v>0.7504961912798862</v>
       </c>
       <c r="Q6">
-        <v>0.6792498021894551</v>
+        <v>0.7517283598412483</v>
       </c>
       <c r="R6">
-        <v>0.7671299330875687</v>
+        <v>0.8462661688331914</v>
       </c>
       <c r="S6">
-        <v>0.7789244027344217</v>
+        <v>0.8802776187049169</v>
       </c>
       <c r="T6">
-        <v>0.9257042063875575</v>
+        <v>0.9753973063170874</v>
       </c>
       <c r="U6">
-        <v>0.9257042063875575</v>
+        <v>0.9753973063170874</v>
       </c>
       <c r="V6">
-        <v>0.9257042063875575</v>
+        <v>0.9753973063170874</v>
       </c>
       <c r="W6">
-        <v>0.9360586071257588</v>
+        <v>0.9753973063170874</v>
       </c>
       <c r="X6">
-        <v>0.9360586071257588</v>
+        <v>0.9753973063170874</v>
       </c>
       <c r="Y6">
-        <v>0.9360586071257588</v>
+        <v>0.975999779246996</v>
       </c>
       <c r="Z6">
-        <v>0.9527435249077238</v>
+        <v>0.9775040433491355</v>
       </c>
       <c r="AA6">
-        <v>0.9527435249077238</v>
+        <v>0.9775040433491355</v>
       </c>
       <c r="AB6">
-        <v>0.9527435249077238</v>
+        <v>0.9775040433491355</v>
       </c>
       <c r="AC6">
-        <v>0.9807914481781361</v>
+        <v>0.9987824113576026</v>
       </c>
       <c r="AD6">
-        <v>0.9807914481781361</v>
+        <v>0.9987824113576026</v>
       </c>
       <c r="AE6">
-        <v>0.9936538178910256</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9936538178910256</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9936538178910256</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1862,63 +1901,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6730870741755322</v>
+        <v>0.6114048794887577</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -1930,27 +1969,27 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -1959,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5974719125192158</v>
+        <v>0.6026155356210147</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -1971,21 +2010,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -2000,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5161901132066196</v>
+        <v>0.526213707479586</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2012,21 +2051,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2035,16 +2074,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6097558150134601</v>
+        <v>0.5033106458842491</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -2053,21 +2092,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2082,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5754051326833765</v>
+        <v>0.6663362604108168</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -2094,16 +2133,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2121,63 +2160,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7625864738295133</v>
+        <v>0.7122847483098225</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -2189,27 +2228,27 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -2218,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8028825465718229</v>
+        <v>0.8152376832048834</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -2230,21 +2269,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2253,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.74630182095032</v>
+        <v>0.720027957144494</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -2271,21 +2310,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2294,16 +2333,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7287433698635795</v>
+        <v>0.7641907667549748</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -2312,21 +2351,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -2335,16 +2374,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7671299330875687</v>
+        <v>0.7504961912798862</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -2353,16 +2392,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2380,54 +2419,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -2436,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9493762416369155</v>
+        <v>0.8557394473227824</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -2448,27 +2487,27 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -2477,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8028825465718229</v>
+        <v>0.8152376832048834</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -2489,21 +2528,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2512,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9395961715067083</v>
+        <v>0.8508372761748875</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -2530,21 +2569,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2553,16 +2592,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9268384532764158</v>
+        <v>0.820052763451112</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -2571,21 +2610,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2594,16 +2633,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9257042063875575</v>
+        <v>0.8462661688331914</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -2612,16 +2651,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2639,66 +2678,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9702192296948344</v>
+      </c>
+      <c r="G2">
         <v>18</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9493762416369155</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -2707,27 +2746,27 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>19</v>
@@ -2736,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9453932279758646</v>
+        <v>0.9661013039014223</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -2748,21 +2787,21 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2777,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9395961715067083</v>
+        <v>0.9808853666190567</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2789,21 +2828,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2812,16 +2851,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9305943603087675</v>
+      </c>
+      <c r="G5">
         <v>18</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9268384532764158</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -2830,21 +2869,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -2859,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9257042063875575</v>
+        <v>0.9753973063170874</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -2871,16 +2910,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
